--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-software.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-software.xlsx
@@ -611,70 +611,70 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Joe Slowik April 2019),(Citation: ESET Bad Rabbit),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Symantec June 2015),(Citation: Catalin Cimpanu April 2016)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Kyle Wilhoit)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019),(Citation: ESET Bad Rabbit)</t>
+  </si>
+  <si>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020)</t>
+    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,(Citation: Dragos FROSTYGOOP 2024),(Citation: Nozomi BUSTLEBERM 2024),(Citation: Dragos FROSTYGOOP 2024)</t>
+    <t>,(Citation: Dragos FROSTYGOOP 2024),(Citation: Dragos FROSTYGOOP 2024),(Citation: Nozomi BUSTLEBERM 2024)</t>
   </si>
   <si>
     <t>,,(Citation: Claroty Fuxnet 2024)</t>
   </si>
   <si>
-    <t>,,(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov, ESET June 2017),(Citation: ESET Industroyer)</t>
+    <t>,,(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos-Pipedream)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
   </si>
   <si>
-    <t>(Citation: Secureworks IRON VIKING ),(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
-  </si>
-  <si>
-    <t>(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: UK NCSC Olympic Attacks October 2020),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: mandiant_apt44_unearthing_sandworm),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: Microsoft Ransomware as a Service),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Secureworks REvil September 2019),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Max Heinemeyer February 2020),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Tom Fakterman August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: FireEye FIN6 Apr 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: DHS CISA February 2019),(Citation: ICS-CERT December 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Schneider Electric January 2018),(Citation: FireEye TRITON),(Citation: The Office of Nuclear Reactor Regulation),(Citation: MDudek-ICS),(Citation: Jos Wetzels January 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: NCSC CISA Cyclops Blink Advisory February 2022),,(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: FBI Flash FIN7 USB),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Microsoft Ransomware as a Service),(Citation: Secureworks REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),,(Citation: SecureWorks September 2019),(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk's Return October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: FireEye TRITON),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Jos Wetzels January 2018),(Citation: Schneider Electric January 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: NCSC CISA Cyclops Blink Advisory February 2022),,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-software.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-software.xlsx
@@ -611,13 +611,13 @@
     <t>,,(Citation: ESET)</t>
   </si>
   <si>
-    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Kyle Wilhoit)</t>
-  </si>
-  <si>
-    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Joe Slowik April 2019),(Citation: ESET Bad Rabbit)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
+    <t>(Citation: Gigamon Berserk Bear October 2021),(Citation: Symantec Dragonfly),,(Citation: ICS-CERT August 2018),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING ),,(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: ESET Bad Rabbit),(Citation: Joe Slowik April 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: UK NCSC Olympic Attacks October 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: iSIGHT Sandworm 2014),(Citation: Secureworks IRON VIKING ),(Citation: F-Secure BlackEnergy 2014),(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton)</t>
   </si>
   <si>
     <t>,,(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015)</t>
@@ -626,55 +626,55 @@
     <t>,,(Citation: Symantec)</t>
   </si>
   <si>
-    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Davey Winder June 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
+    <t>,,(Citation: Dragos Threat Intelligence February 2020),(Citation: Davey Winder June 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Kevin Savage and Branko Spasojevic)</t>
   </si>
   <si>
-    <t>,(Citation: Dragos FROSTYGOOP 2024),(Citation: Dragos FROSTYGOOP 2024),(Citation: Nozomi BUSTLEBERM 2024)</t>
+    <t>,(Citation: Dragos FROSTYGOOP 2024),(Citation: Nozomi BUSTLEBERM 2024),(Citation: Dragos FROSTYGOOP 2024)</t>
   </si>
   <si>
     <t>,,(Citation: Claroty Fuxnet 2024)</t>
   </si>
   <si>
-    <t>,,(Citation: CISA-AA22-103A),(Citation: Brubaker-Incontroller),(Citation: Wylie-22),(Citation: Dragos-Pipedream)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Industroyer2 ESET April 2022),,(Citation: Industroyer2 Mandiant April 2022),(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: ESET Lazarus KillDisk April 2018),(Citation: Secureworks IRON VIKING ),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Kevin Beaumont),(Citation: Hydro)</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Cyclops Blink March 2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Secureworks IRON VIKING ),(Citation: NCSC Sandworm Feb 2020),(Citation: mandiant_apt44_unearthing_sandworm),,(Citation: Joe Slowik April 2019),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019)</t>
+    <t>,,(Citation: Brubaker-Incontroller),(Citation: Dragos-Pipedream),(Citation: Wylie-22),(Citation: CISA-AA22-103A)</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Inc. June 2017),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: Anton Cherepanov, ESET June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Industroyer2 ESET April 2022),(Citation: mandiant_apt44_unearthing_sandworm),,(Citation: Industroyer2 ESET April 2022),(Citation: Industroyer2 Forescout July 2022),(Citation: Industroyer2 Mandiant April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Lazarus KillDisk April 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov),(Citation: Booz Allen Hamilton)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye FIN6 Apr 2019),,(Citation: Hydro),(Citation: Kevin Beaumont)</t>
+  </si>
+  <si>
+    <t>(Citation: mandiant_apt44_unearthing_sandworm),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Secureworks IRON VIKING ),(Citation: Trend Micro Cyclops Blink March 2022),,(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016)</t>
   </si>
   <si>
-    <t>(Citation: FBI Flash FIN7 USB),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: Microsoft Ransomware as a Service),(Citation: Secureworks REvil September 2019),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: IBM Ransomware Trends September 2020),,(Citation: SecureWorks September 2019),(Citation: Max Heinemeyer February 2020),(Citation: McAfee Labs October 2019),(Citation: Tom Fakterman August 2019),(Citation: Selena Larson, Camille Singleton December 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk's Return October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: FireEye FIN6 Apr 2019),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),,(Citation: Kelly Jackson Higgins)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Langer Stuxnet),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: ICS-CERT December 2018),(Citation: MDudek-ICS),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: FireEye TRITON),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Jos Wetzels January 2018),(Citation: Schneider Electric January 2018)</t>
+    <t>(Citation: Microsoft Ransomware as a Service),(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),,(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Max Heinemeyer February 2020),(Citation: SecureWorks September 2019),(Citation: McAfee Labs October 2019),(Citation: Tom Fakterman August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: FireEye FIN6 Apr 2019),,(Citation: Kelly Jackson Higgins)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Langer Stuxnet)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: MDudek-ICS),(Citation: ICS-CERT December 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Schneider Electric January 2018),(Citation: FireEye TRITON),(Citation: Jos Wetzels January 2018),(Citation: DHS CISA February 2019)</t>
   </si>
   <si>
     <t>(Citation: NCSC CISA Cyclops Blink Advisory February 2022),,(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018)</t>
   </si>
   <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),,(Citation: Joe Slowik April 2019)</t>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),,(Citation: Joe Slowik April 2019)</t>
   </si>
   <si>
     <t>source ID</t>
@@ -3827,16 +3827,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3859,7 +3851,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3867,35 +3859,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4198,46 +4172,46 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4254,7 +4228,7 @@
       <c r="D2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F2" t="s">
@@ -4289,7 +4263,7 @@
       <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F3" t="s">
@@ -4330,7 +4304,7 @@
       <c r="D4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F4" t="s">
@@ -4371,7 +4345,7 @@
       <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F5" t="s">
@@ -4412,7 +4386,7 @@
       <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F6" t="s">
@@ -4453,7 +4427,7 @@
       <c r="D7" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F7" t="s">
@@ -4491,7 +4465,7 @@
       <c r="D8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F8" t="s">
@@ -4532,7 +4506,7 @@
       <c r="D9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F9" t="s">
@@ -4573,7 +4547,7 @@
       <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F10" t="s">
@@ -4614,7 +4588,7 @@
       <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F11" t="s">
@@ -4655,7 +4629,7 @@
       <c r="D12" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F12" t="s">
@@ -4699,7 +4673,7 @@
       <c r="D13" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F13" t="s">
@@ -4743,7 +4717,7 @@
       <c r="D14" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F14" t="s">
@@ -4781,7 +4755,7 @@
       <c r="D15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F15" t="s">
@@ -4822,7 +4796,7 @@
       <c r="D16" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F16" t="s">
@@ -4863,7 +4837,7 @@
       <c r="D17" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F17" t="s">
@@ -4904,7 +4878,7 @@
       <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F18" t="s">
@@ -4939,7 +4913,7 @@
       <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F19" t="s">
@@ -4983,7 +4957,7 @@
       <c r="D20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F20" t="s">
@@ -5024,7 +4998,7 @@
       <c r="D21" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F21" t="s">
@@ -5065,7 +5039,7 @@
       <c r="D22" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F22" t="s">
@@ -5103,7 +5077,7 @@
       <c r="D23" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F23" t="s">
@@ -5141,7 +5115,7 @@
       <c r="D24" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F24" t="s">
@@ -5211,43 +5185,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5921,43 +5895,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6180,43 +6154,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12917,13 +12891,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>861</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>862</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12934,7 +12908,7 @@
       <c r="B2" t="s">
         <v>1000</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -12945,7 +12919,7 @@
       <c r="B3" t="s">
         <v>1001</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -12956,7 +12930,7 @@
       <c r="B4" t="s">
         <v>1002</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -12967,7 +12941,7 @@
       <c r="B5" t="s">
         <v>1003</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -12978,7 +12952,7 @@
       <c r="B6" t="s">
         <v>1004</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -12989,7 +12963,7 @@
       <c r="B7" t="s">
         <v>1005</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>1141</v>
       </c>
     </row>
@@ -13000,7 +12974,7 @@
       <c r="B8" t="s">
         <v>1006</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -13011,7 +12985,7 @@
       <c r="B9" t="s">
         <v>1007</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -13022,7 +12996,7 @@
       <c r="B10" t="s">
         <v>1008</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -13033,7 +13007,7 @@
       <c r="B11" t="s">
         <v>1009</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -13044,7 +13018,7 @@
       <c r="B12" t="s">
         <v>1010</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -13055,7 +13029,7 @@
       <c r="B13" t="s">
         <v>1011</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -13066,7 +13040,7 @@
       <c r="B14" t="s">
         <v>1012</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>1148</v>
       </c>
     </row>
@@ -13077,7 +13051,7 @@
       <c r="B15" t="s">
         <v>1013</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
@@ -13088,7 +13062,7 @@
       <c r="B16" t="s">
         <v>1014</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -13099,7 +13073,7 @@
       <c r="B17" t="s">
         <v>1015</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>1151</v>
       </c>
     </row>
@@ -13110,7 +13084,7 @@
       <c r="B18" t="s">
         <v>1016</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -13121,7 +13095,7 @@
       <c r="B19" t="s">
         <v>1017</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -13132,7 +13106,7 @@
       <c r="B20" t="s">
         <v>1018</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -13143,7 +13117,7 @@
       <c r="B21" t="s">
         <v>1019</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -13154,7 +13128,7 @@
       <c r="B22" t="s">
         <v>1020</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -13165,7 +13139,7 @@
       <c r="B23" t="s">
         <v>1021</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -13176,7 +13150,7 @@
       <c r="B24" t="s">
         <v>1022</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -13187,7 +13161,7 @@
       <c r="B25" t="s">
         <v>1023</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -13198,7 +13172,7 @@
       <c r="B26" t="s">
         <v>1024</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -13209,7 +13183,7 @@
       <c r="B27" t="s">
         <v>1025</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -13220,7 +13194,7 @@
       <c r="B28" t="s">
         <v>1026</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -13231,7 +13205,7 @@
       <c r="B29" t="s">
         <v>1027</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
@@ -13242,7 +13216,7 @@
       <c r="B30" t="s">
         <v>1028</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -13253,7 +13227,7 @@
       <c r="B31" t="s">
         <v>1029</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -13264,7 +13238,7 @@
       <c r="B32" t="s">
         <v>1030</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -13275,7 +13249,7 @@
       <c r="B33" t="s">
         <v>1031</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -13286,7 +13260,7 @@
       <c r="B34" t="s">
         <v>1032</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -13297,7 +13271,7 @@
       <c r="B35" t="s">
         <v>1033</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -13308,7 +13282,7 @@
       <c r="B36" t="s">
         <v>1034</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -13319,7 +13293,7 @@
       <c r="B37" t="s">
         <v>1035</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -13330,7 +13304,7 @@
       <c r="B38" t="s">
         <v>1036</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -13341,7 +13315,7 @@
       <c r="B39" t="s">
         <v>1037</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -13352,7 +13326,7 @@
       <c r="B40" t="s">
         <v>1038</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -13363,7 +13337,7 @@
       <c r="B41" t="s">
         <v>1039</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -13374,7 +13348,7 @@
       <c r="B42" t="s">
         <v>1040</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -13385,7 +13359,7 @@
       <c r="B43" t="s">
         <v>1041</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -13396,7 +13370,7 @@
       <c r="B44" t="s">
         <v>1042</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -13407,7 +13381,7 @@
       <c r="B45" t="s">
         <v>1043</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -13418,7 +13392,7 @@
       <c r="B46" t="s">
         <v>1044</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -13429,7 +13403,7 @@
       <c r="B47" t="s">
         <v>1045</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -13440,7 +13414,7 @@
       <c r="B48" t="s">
         <v>1046</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -13451,7 +13425,7 @@
       <c r="B49" t="s">
         <v>1047</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -13462,7 +13436,7 @@
       <c r="B50" t="s">
         <v>1048</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -13473,7 +13447,7 @@
       <c r="B51" t="s">
         <v>1049</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -13484,7 +13458,7 @@
       <c r="B52" t="s">
         <v>1050</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -13495,7 +13469,7 @@
       <c r="B53" t="s">
         <v>1051</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -13506,7 +13480,7 @@
       <c r="B54" t="s">
         <v>1052</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -13517,7 +13491,7 @@
       <c r="B55" t="s">
         <v>1053</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -13528,7 +13502,7 @@
       <c r="B56" t="s">
         <v>1054</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -13539,7 +13513,7 @@
       <c r="B57" t="s">
         <v>1055</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -13550,7 +13524,7 @@
       <c r="B58" t="s">
         <v>1056</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -13561,7 +13535,7 @@
       <c r="B59" t="s">
         <v>1057</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>1189</v>
       </c>
     </row>
@@ -13572,7 +13546,7 @@
       <c r="B60" t="s">
         <v>1058</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -13583,7 +13557,7 @@
       <c r="B61" t="s">
         <v>1059</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -13594,7 +13568,7 @@
       <c r="B62" t="s">
         <v>1060</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -13605,7 +13579,7 @@
       <c r="B63" t="s">
         <v>1061</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -13616,7 +13590,7 @@
       <c r="B64" t="s">
         <v>1062</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -13627,7 +13601,7 @@
       <c r="B65" t="s">
         <v>1063</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -13638,7 +13612,7 @@
       <c r="B66" t="s">
         <v>1064</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -13649,7 +13623,7 @@
       <c r="B67" t="s">
         <v>1065</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -13660,7 +13634,7 @@
       <c r="B68" t="s">
         <v>1066</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -13671,7 +13645,7 @@
       <c r="B69" t="s">
         <v>1067</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -13682,7 +13656,7 @@
       <c r="B70" t="s">
         <v>1068</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -13693,7 +13667,7 @@
       <c r="B71" t="s">
         <v>1069</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -13704,7 +13678,7 @@
       <c r="B72" t="s">
         <v>1070</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -13715,7 +13689,7 @@
       <c r="B73" t="s">
         <v>1071</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -13726,7 +13700,7 @@
       <c r="B74" t="s">
         <v>1072</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -13737,7 +13711,7 @@
       <c r="B75" t="s">
         <v>1073</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -13748,7 +13722,7 @@
       <c r="B76" t="s">
         <v>1074</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -13759,7 +13733,7 @@
       <c r="B77" t="s">
         <v>1075</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -13770,7 +13744,7 @@
       <c r="B78" t="s">
         <v>1076</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -13781,7 +13755,7 @@
       <c r="B79" t="s">
         <v>1076</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -13792,7 +13766,7 @@
       <c r="B80" t="s">
         <v>1077</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -13803,7 +13777,7 @@
       <c r="B81" t="s">
         <v>1078</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -13814,7 +13788,7 @@
       <c r="B82" t="s">
         <v>1079</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -13825,7 +13799,7 @@
       <c r="B83" t="s">
         <v>1080</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -13836,7 +13810,7 @@
       <c r="B84" t="s">
         <v>1081</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -13847,7 +13821,7 @@
       <c r="B85" t="s">
         <v>1082</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -13858,7 +13832,7 @@
       <c r="B86" t="s">
         <v>1083</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -13869,7 +13843,7 @@
       <c r="B87" t="s">
         <v>1084</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -13880,7 +13854,7 @@
       <c r="B88" t="s">
         <v>1085</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -13891,7 +13865,7 @@
       <c r="B89" t="s">
         <v>1086</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -13902,7 +13876,7 @@
       <c r="B90" t="s">
         <v>1087</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -13913,7 +13887,7 @@
       <c r="B91" t="s">
         <v>1088</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -13924,7 +13898,7 @@
       <c r="B92" t="s">
         <v>1089</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -13935,7 +13909,7 @@
       <c r="B93" t="s">
         <v>1090</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -13946,7 +13920,7 @@
       <c r="B94" t="s">
         <v>1091</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -13957,7 +13931,7 @@
       <c r="B95" t="s">
         <v>1092</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13968,7 +13942,7 @@
       <c r="B96" t="s">
         <v>1093</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -13979,7 +13953,7 @@
       <c r="B97" t="s">
         <v>1094</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -13990,7 +13964,7 @@
       <c r="B98" t="s">
         <v>1095</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -14001,7 +13975,7 @@
       <c r="B99" t="s">
         <v>1043</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -14012,7 +13986,7 @@
       <c r="B100" t="s">
         <v>1096</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -14023,7 +13997,7 @@
       <c r="B101" t="s">
         <v>1082</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -14034,7 +14008,7 @@
       <c r="B102" t="s">
         <v>1097</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -14045,7 +14019,7 @@
       <c r="B103" t="s">
         <v>1098</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -14056,7 +14030,7 @@
       <c r="B104" t="s">
         <v>1068</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -14067,7 +14041,7 @@
       <c r="B105" t="s">
         <v>1059</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -14078,7 +14052,7 @@
       <c r="B106" t="s">
         <v>1099</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -14089,7 +14063,7 @@
       <c r="B107" t="s">
         <v>1030</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -14100,7 +14074,7 @@
       <c r="B108" t="s">
         <v>1100</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -14111,7 +14085,7 @@
       <c r="B109" t="s">
         <v>1101</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -14122,7 +14096,7 @@
       <c r="B110" t="s">
         <v>1080</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -14133,7 +14107,7 @@
       <c r="B111" t="s">
         <v>1033</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -14144,7 +14118,7 @@
       <c r="B112" t="s">
         <v>1102</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -14155,7 +14129,7 @@
       <c r="B113" t="s">
         <v>1103</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -14166,7 +14140,7 @@
       <c r="B114" t="s">
         <v>1088</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -14177,7 +14151,7 @@
       <c r="B115" t="s">
         <v>1104</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -14188,7 +14162,7 @@
       <c r="B116" t="s">
         <v>1105</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>1232</v>
       </c>
     </row>
@@ -14199,7 +14173,7 @@
       <c r="B117" t="s">
         <v>1106</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -14210,7 +14184,7 @@
       <c r="B118" t="s">
         <v>1107</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -14221,7 +14195,7 @@
       <c r="B119" t="s">
         <v>1108</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -14232,7 +14206,7 @@
       <c r="B120" t="s">
         <v>1007</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -14243,7 +14217,7 @@
       <c r="B121" t="s">
         <v>1066</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -14254,7 +14228,7 @@
       <c r="B122" t="s">
         <v>1089</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -14265,7 +14239,7 @@
       <c r="B123" t="s">
         <v>1109</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -14276,7 +14250,7 @@
       <c r="B124" t="s">
         <v>1110</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -14287,7 +14261,7 @@
       <c r="B125" t="s">
         <v>1042</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -14298,7 +14272,7 @@
       <c r="B126" t="s">
         <v>1074</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -14309,7 +14283,7 @@
       <c r="B127" t="s">
         <v>1111</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -14320,7 +14294,7 @@
       <c r="B128" t="s">
         <v>1060</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14331,7 +14305,7 @@
       <c r="B129" t="s">
         <v>1112</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -14342,7 +14316,7 @@
       <c r="B130" t="s">
         <v>1003</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -14353,7 +14327,7 @@
       <c r="B131" t="s">
         <v>1016</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -14364,7 +14338,7 @@
       <c r="B132" t="s">
         <v>1113</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -14375,7 +14349,7 @@
       <c r="B133" t="s">
         <v>1053</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -14386,7 +14360,7 @@
       <c r="B134" t="s">
         <v>1114</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -14397,7 +14371,7 @@
       <c r="B135" t="s">
         <v>1115</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>1241</v>
       </c>
     </row>
@@ -14408,7 +14382,7 @@
       <c r="B136" t="s">
         <v>1072</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -14419,7 +14393,7 @@
       <c r="B137" t="s">
         <v>1009</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -14430,7 +14404,7 @@
       <c r="B138" t="s">
         <v>1116</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -14441,7 +14415,7 @@
       <c r="B139" t="s">
         <v>1117</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -14452,7 +14426,7 @@
       <c r="B140" t="s">
         <v>1011</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -14463,7 +14437,7 @@
       <c r="B141" t="s">
         <v>1036</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -14474,7 +14448,7 @@
       <c r="B142" t="s">
         <v>1029</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -14485,7 +14459,7 @@
       <c r="B143" t="s">
         <v>1118</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -14496,7 +14470,7 @@
       <c r="B144" t="s">
         <v>1077</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -14507,7 +14481,7 @@
       <c r="B145" t="s">
         <v>1119</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -14518,7 +14492,7 @@
       <c r="B146" t="s">
         <v>1120</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -14529,7 +14503,7 @@
       <c r="B147" t="s">
         <v>1121</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -14540,7 +14514,7 @@
       <c r="B148" t="s">
         <v>1122</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>1248</v>
       </c>
     </row>
@@ -14551,7 +14525,7 @@
       <c r="B149" t="s">
         <v>1123</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>1249</v>
       </c>
     </row>
@@ -14562,7 +14536,7 @@
       <c r="B150" t="s">
         <v>1124</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -14573,7 +14547,7 @@
       <c r="B151" t="s">
         <v>1125</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -14584,7 +14558,7 @@
       <c r="B152" t="s">
         <v>1126</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -14595,7 +14569,7 @@
       <c r="B153" t="s">
         <v>1075</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -14606,7 +14580,7 @@
       <c r="B154" t="s">
         <v>1127</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>1253</v>
       </c>
     </row>
@@ -14617,7 +14591,7 @@
       <c r="B155" t="s">
         <v>1024</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -14628,7 +14602,7 @@
       <c r="B156" t="s">
         <v>1069</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -14639,7 +14613,7 @@
       <c r="B157" t="s">
         <v>1006</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -14650,7 +14624,7 @@
       <c r="B158" t="s">
         <v>1028</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -14661,7 +14635,7 @@
       <c r="B159" t="s">
         <v>1090</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -14672,7 +14646,7 @@
       <c r="B160" t="s">
         <v>1005</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>1141</v>
       </c>
     </row>
@@ -14683,7 +14657,7 @@
       <c r="B161" t="s">
         <v>1128</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -14694,7 +14668,7 @@
       <c r="B162" t="s">
         <v>1129</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -14705,7 +14679,7 @@
       <c r="B163" t="s">
         <v>1130</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -14716,7 +14690,7 @@
       <c r="B164" t="s">
         <v>1131</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -14727,7 +14701,7 @@
       <c r="B165" t="s">
         <v>1132</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>1258</v>
       </c>
     </row>
@@ -14738,7 +14712,7 @@
       <c r="B166" t="s">
         <v>1031</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -14749,7 +14723,7 @@
       <c r="B167" t="s">
         <v>1022</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -14760,7 +14734,7 @@
       <c r="B168" t="s">
         <v>1023</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -14771,7 +14745,7 @@
       <c r="B169" t="s">
         <v>1133</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>1259</v>
       </c>
     </row>
@@ -14782,7 +14756,7 @@
       <c r="B170" t="s">
         <v>1134</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -14793,7 +14767,7 @@
       <c r="B171" t="s">
         <v>1135</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>1261</v>
       </c>
     </row>
